--- a/接口/商城swagger接口对照表.xlsx
+++ b/接口/商城swagger接口对照表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninghui/Documents/M/接口/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F773255F-4FC5-5F49-818B-FDDE79D4F2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口自动化" sheetId="1" r:id="rId1"/>
@@ -257,14 +263,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,347 +285,49 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF3B4151"/>
       <name val="Open Sans"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -633,262 +335,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -897,62 +360,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1239,29 +668,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="28.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="41.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="47.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="22.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
+    <col min="3" max="3" width="47.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="26.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1281,12 +710,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1303,7 +732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1334,184 +763,184 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:6">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:6" s="6" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="18" customHeight="1" spans="1:4">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:6" s="6" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" ht="18" customHeight="1" spans="1:5">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:6" s="6" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="18" customHeight="1" spans="1:4">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:6" s="6" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" ht="18" customHeight="1" spans="1:4">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:6" s="6" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:6" s="6" customFormat="1" ht="15">
+      <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:6" s="6" customFormat="1" ht="15">
+      <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:6" s="6" customFormat="1" ht="15">
+      <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:6" s="6" customFormat="1" ht="15">
+      <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:6" s="6" customFormat="1" ht="15">
+      <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:6" s="6" customFormat="1" ht="15">
+      <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:6">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:6" ht="15">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -1525,7 +954,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="15">
       <c r="A20" s="4" t="s">
         <v>53</v>
       </c>
@@ -1545,7 +974,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6" ht="15">
       <c r="A21" s="4" t="s">
         <v>58</v>
       </c>
@@ -1562,7 +991,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:6" ht="15">
       <c r="A22" s="4" t="s">
         <v>61</v>
       </c>
@@ -1576,7 +1005,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:6" ht="15">
       <c r="A23" s="4" t="s">
         <v>64</v>
       </c>
@@ -1590,12 +1019,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6" ht="15">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -1612,12 +1041,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:6" ht="15">
       <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
@@ -1631,7 +1060,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6" ht="15">
       <c r="A32" s="4" t="s">
         <v>76</v>
       </c>
@@ -1649,49 +1078,46 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="http://www.mtxshop.com:7002/swagger-ui.html"/>
-    <hyperlink ref="C4" r:id="rId1" display="http://www.mtxshop.com:7002/swagger-ui.html"/>
-    <hyperlink ref="C5" r:id="rId1" display="http://www.mtxshop.com:7002/swagger-ui.html"/>
-    <hyperlink ref="C6" r:id="rId1" display="http://www.mtxshop.com:7002/swagger-ui.html"/>
-    <hyperlink ref="C11" r:id="rId1" display="http://www.mtxshop.com:7002/swagger-ui.html"/>
-    <hyperlink ref="C7" r:id="rId1" display="http://www.mtxshop.com:7002/swagger-ui.html"/>
-    <hyperlink ref="C8" r:id="rId1" display="http://www.mtxshop.com:7002/swagger-ui.html"/>
-    <hyperlink ref="C12" r:id="rId1" display="http://www.mtxshop.com:7002/swagger-ui.html"/>
-    <hyperlink ref="C13" r:id="rId1" display="http://www.mtxshop.com:7002/swagger-ui.html"/>
-    <hyperlink ref="C14" r:id="rId1" display="http://www.mtxshop.com:7002/swagger-ui.html"/>
-    <hyperlink ref="C19" r:id="rId2" display="http://www.mtxshop.com:7003/swagger-ui.html"/>
-    <hyperlink ref="C20" r:id="rId2" display="http://www.mtxshop.com:7003/swagger-ui.html"/>
-    <hyperlink ref="C21" r:id="rId2" display="http://www.mtxshop.com:7003/swagger-ui.html"/>
-    <hyperlink ref="C22" r:id="rId2" display="http://www.mtxshop.com:7003/swagger-ui.html"/>
-    <hyperlink ref="C23" r:id="rId2" display="http://www.mtxshop.com:7003/swagger-ui.html"/>
-    <hyperlink ref="C15" r:id="rId1" display="http://www.mtxshop.com:7002/swagger-ui.html"/>
-    <hyperlink ref="C27" r:id="rId3" display="http://www.mtxshop.com:7000/swagger-ui.html"/>
-    <hyperlink ref="C16" r:id="rId1" display="http://www.mtxshop.com:7002/swagger-ui.html"/>
-    <hyperlink ref="C31" r:id="rId4" display="http://www.mtxshop.com:7004/swagger-ui.html"/>
-    <hyperlink ref="C32" r:id="rId4" display="http://www.mtxshop.com:7004/swagger-ui.html"/>
-    <hyperlink ref="C9" r:id="rId1" display="http://www.mtxshop.com:7002/swagger-ui.html"/>
-    <hyperlink ref="C10" r:id="rId1" display="http://www.mtxshop.com:7002/swagger-ui.html"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C27" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C16" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C31" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C9" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C10" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/接口/商城swagger接口对照表.xlsx
+++ b/接口/商城swagger接口对照表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninghui/Documents/M/接口/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F773255F-4FC5-5F49-818B-FDDE79D4F2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D049D3A-4B23-364D-949C-5B5C968E2F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -209,62 +209,63 @@
     <t>订单发货</t>
   </si>
   <si>
+    <t>交易-商家订单api模块</t>
+  </si>
+  <si>
+    <t>确认收款</t>
+  </si>
+  <si>
+    <t>/seller/trade/orders/{order_sn}/pay</t>
+  </si>
+  <si>
+    <t>基础服务</t>
+  </si>
+  <si>
+    <t>文件上传</t>
+  </si>
+  <si>
+    <t>/uploaders</t>
+  </si>
+  <si>
+    <t>http://www.mtxshop.com:7000/swagger-ui.html</t>
+  </si>
+  <si>
+    <t>默认-上传图片api</t>
+  </si>
+  <si>
+    <t>图片上传</t>
+  </si>
+  <si>
+    <t>管理中心</t>
+  </si>
+  <si>
+    <t>/admin/systems/admin-users/login</t>
+  </si>
+  <si>
+    <t>http://www.mtxshop.com:7004/swagger-ui.html</t>
+  </si>
+  <si>
+    <t>系统设置-平台管理员相关api</t>
+  </si>
+  <si>
+    <t>管理员批量审核商品</t>
+  </si>
+  <si>
+    <t>/admin/goods/batch/audit</t>
+  </si>
+  <si>
+    <t>json参数，参数值有数组</t>
+  </si>
+  <si>
     <t>/seller/trade/orders/{order_sn}/delivery</t>
-  </si>
-  <si>
-    <t>交易-商家订单api模块</t>
-  </si>
-  <si>
-    <t>确认收款</t>
-  </si>
-  <si>
-    <t>/seller/trade/orders/{order_sn}/pay</t>
-  </si>
-  <si>
-    <t>基础服务</t>
-  </si>
-  <si>
-    <t>文件上传</t>
-  </si>
-  <si>
-    <t>/uploaders</t>
-  </si>
-  <si>
-    <t>http://www.mtxshop.com:7000/swagger-ui.html</t>
-  </si>
-  <si>
-    <t>默认-上传图片api</t>
-  </si>
-  <si>
-    <t>图片上传</t>
-  </si>
-  <si>
-    <t>管理中心</t>
-  </si>
-  <si>
-    <t>/admin/systems/admin-users/login</t>
-  </si>
-  <si>
-    <t>http://www.mtxshop.com:7004/swagger-ui.html</t>
-  </si>
-  <si>
-    <t>系统设置-平台管理员相关api</t>
-  </si>
-  <si>
-    <t>管理员批量审核商品</t>
-  </si>
-  <si>
-    <t>/admin/goods/batch/audit</t>
-  </si>
-  <si>
-    <t>json参数，参数值有数组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +319,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -344,7 +353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -367,6 +376,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -677,7 +689,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -995,55 +1007,55 @@
       <c r="A22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B22" t="s">
-        <v>62</v>
+      <c r="B22" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15">
       <c r="A23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
         <v>64</v>
-      </c>
-      <c r="B23" t="s">
-        <v>65</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15">
       <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" t="s">
         <v>69</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>70</v>
-      </c>
-      <c r="E27" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15">
@@ -1051,30 +1063,30 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" t="s">
         <v>74</v>
-      </c>
-      <c r="D31" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15">
       <c r="A32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
         <v>76</v>
       </c>
-      <c r="B32" t="s">
-        <v>77</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
         <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
